--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value995.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value995.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.417143752575035</v>
+        <v>1.737660765647888</v>
       </c>
       <c r="B1">
-        <v>3.448084893371114</v>
+        <v>2.021423578262329</v>
       </c>
       <c r="C1">
-        <v>4.81382696901614</v>
+        <v>2.222915649414062</v>
       </c>
       <c r="D1">
-        <v>1.539364929805771</v>
+        <v>2.355828046798706</v>
       </c>
       <c r="E1">
-        <v>0.8144119783031553</v>
+        <v>2.991458415985107</v>
       </c>
     </row>
   </sheetData>
